--- a/docs/DatosSinSeguridad.xlsx
+++ b/docs/DatosSinSeguridad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" tabRatio="790" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Carga 80 - 8 threads" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -337,30 +338,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>55005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50656</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48553</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49723</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47329</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48466</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48953</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -439,28 +416,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>96516</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104419</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94912</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>106473</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100980</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100845</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92478</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>101479</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,30 +501,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>24619</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24135</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24460</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22680</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22309</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21242</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -581,11 +519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142105264"/>
-        <c:axId val="-2142102000"/>
+        <c:axId val="-407701552"/>
+        <c:axId val="-407708624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142105264"/>
+        <c:axId val="-407701552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,12 +641,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142102000"/>
+        <c:crossAx val="-407708624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142102000"/>
+        <c:axId val="-407708624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +764,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142105264"/>
+        <c:crossAx val="-407701552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -952,7 +890,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1019,30 +956,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>11463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11525</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12424</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11273</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11976</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12227</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1052,30 +965,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>12590</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13168</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16315</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15622</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15056</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14129</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12574</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1094,11 +983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938390736"/>
-        <c:axId val="-1938379856"/>
+        <c:axId val="-369425232"/>
+        <c:axId val="-369412176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938390736"/>
+        <c:axId val="-369425232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1038,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1216,12 +1104,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938379856"/>
+        <c:crossAx val="-369412176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938379856"/>
+        <c:axId val="-369412176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1160,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1339,7 +1226,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938390736"/>
+        <c:crossAx val="-369425232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1545,21 +1432,6 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1637,30 +1509,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1738,30 +1586,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1780,11 +1604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142103088"/>
-        <c:axId val="-2142104176"/>
+        <c:axId val="-407705360"/>
+        <c:axId val="-407699920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142103088"/>
+        <c:axId val="-407705360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1902,12 +1726,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142104176"/>
+        <c:crossAx val="-407699920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142104176"/>
+        <c:axId val="-407699920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +1849,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142103088"/>
+        <c:crossAx val="-407705360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2249,30 +2073,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1695</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2278</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5163</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4325</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4041</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2526</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2350,30 +2150,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4506</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3427</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4775</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3402</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5056</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3698</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2451,30 +2227,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>13625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5748</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6470</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4695</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8649</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14689</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6539</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16923</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2493,11 +2245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1944271440"/>
-        <c:axId val="-1944273072"/>
+        <c:axId val="-407693936"/>
+        <c:axId val="-407706992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1944271440"/>
+        <c:axId val="-407693936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,12 +2367,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944273072"/>
+        <c:crossAx val="-407706992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1944273072"/>
+        <c:axId val="-407706992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2485,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944271440"/>
+        <c:crossAx val="-407693936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2827,7 +2579,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2894,30 +2645,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>55005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50656</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48553</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49723</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47329</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48466</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48953</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2927,30 +2654,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4506</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3427</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4775</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3402</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5056</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3698</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2969,11 +2672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1944276336"/>
-        <c:axId val="-1944274704"/>
+        <c:axId val="-407708080"/>
+        <c:axId val="-407694480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1944276336"/>
+        <c:axId val="-407708080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,12 +2733,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944274704"/>
+        <c:crossAx val="-407694480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1944274704"/>
+        <c:axId val="-407694480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +2795,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944276336"/>
+        <c:crossAx val="-407708080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3252,30 +2955,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>24619</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24135</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24460</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22680</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22309</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21242</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3285,30 +2964,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>13625</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5748</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6470</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4695</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8649</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14689</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6539</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16923</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3327,11 +2982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1944275248"/>
-        <c:axId val="-1944274160"/>
+        <c:axId val="-407706448"/>
+        <c:axId val="-407696656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1944275248"/>
+        <c:axId val="-407706448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,12 +3103,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944274160"/>
+        <c:crossAx val="-407696656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1944274160"/>
+        <c:axId val="-407696656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3565,7 +3220,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1944275248"/>
+        <c:crossAx val="-407706448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3659,7 +3314,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3762,30 +3416,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>48498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51537</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65643</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50434</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41581</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3863,30 +3493,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>26656</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21581</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20787</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23835</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22183</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3964,30 +3570,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11525</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12424</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11273</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11976</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12227</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4006,11 +3588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-78213088"/>
-        <c:axId val="-78214720"/>
+        <c:axId val="-407704816"/>
+        <c:axId val="-407703184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-78213088"/>
+        <c:axId val="-407704816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4061,7 +3643,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4128,12 +3709,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-78214720"/>
+        <c:crossAx val="-407703184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-78214720"/>
+        <c:axId val="-407703184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4179,7 +3760,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4246,7 +3826,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-78213088"/>
+        <c:crossAx val="-407704816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4260,7 +3840,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4372,7 +3951,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4475,30 +4053,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4576,30 +4130,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4677,30 +4207,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4719,11 +4225,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938391280"/>
-        <c:axId val="-1938379312"/>
+        <c:axId val="-407702640"/>
+        <c:axId val="-407695024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938391280"/>
+        <c:axId val="-407702640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4774,7 +4280,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4841,12 +4346,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938379312"/>
+        <c:crossAx val="-407695024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938379312"/>
+        <c:axId val="-407695024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4897,7 +4402,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4964,7 +4468,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938391280"/>
+        <c:crossAx val="-407702640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4978,7 +4482,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5090,7 +4593,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5193,30 +4695,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3969</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5114</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3318</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3539</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2665</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3509</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5294,30 +4772,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3622</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9894</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2657</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10756</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10384</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5395,30 +4849,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>12590</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13168</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16315</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15622</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15056</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14129</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12574</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5437,11 +4867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938384752"/>
-        <c:axId val="-1938383664"/>
+        <c:axId val="-369416528"/>
+        <c:axId val="-369418160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938384752"/>
+        <c:axId val="-369416528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5492,7 +4922,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5559,12 +4988,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938383664"/>
+        <c:crossAx val="-369418160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938383664"/>
+        <c:axId val="-369418160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5610,7 +5039,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5677,7 +5105,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938384752"/>
+        <c:crossAx val="-369416528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5691,7 +5119,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5803,7 +5230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5870,30 +5296,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>26656</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28111</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21581</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20787</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23835</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22183</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5903,30 +5305,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3622</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9894</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2657</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10756</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10384</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5945,11 +5323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1938386384"/>
-        <c:axId val="-1938389648"/>
+        <c:axId val="-369413808"/>
+        <c:axId val="-369412720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1938386384"/>
+        <c:axId val="-369413808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5995,7 +5373,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6062,12 +5439,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938389648"/>
+        <c:crossAx val="-369412720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1938389648"/>
+        <c:axId val="-369412720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6118,7 +5495,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6185,7 +5561,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1938386384"/>
+        <c:crossAx val="-369413808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12423,8 +11799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12483,7 +11859,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>96516</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -12491,9 +11867,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>3201</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="H4" t="s">
         <v>9</v>
       </c>
@@ -12506,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>104419</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -12514,9 +11888,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>1695</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="H5" t="s">
         <v>10</v>
       </c>
@@ -12529,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>94912</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -12537,9 +11909,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>2278</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="H6" t="s">
         <v>11</v>
       </c>
@@ -12551,18 +11921,10 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <v>106473</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6301</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7" t="s">
         <v>12</v>
       </c>
@@ -12574,18 +11936,10 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>100980</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5163</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="H8" t="s">
         <v>13</v>
       </c>
@@ -12597,18 +11951,10 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>100845</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4325</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
       <c r="H9" t="s">
         <v>14</v>
       </c>
@@ -12620,18 +11966,10 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>92478</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4041</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10" t="s">
         <v>15</v>
       </c>
@@ -12643,18 +11981,10 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>101479</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2526</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="H11" t="s">
         <v>14</v>
       </c>
@@ -12695,7 +12025,7 @@
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12735,18 +12065,10 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>55005</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4506</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -12755,18 +12077,10 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>47176</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3427</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -12775,18 +12089,10 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>50656</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4775</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -12795,18 +12101,10 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>48553</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3402</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -12815,18 +12113,10 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>49723</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5056</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -12835,18 +12125,10 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>47329</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5277</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -12855,18 +12137,10 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>48466</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6003</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -12875,18 +12149,10 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>48953</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3698</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -12923,7 +12189,7 @@
   <dimension ref="G4:L14"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I5" sqref="I5:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12962,18 +12228,10 @@
       <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1">
-        <v>24619</v>
-      </c>
-      <c r="J5" s="1">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>13625</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
@@ -12982,18 +12240,10 @@
       <c r="H6" s="1">
         <v>8</v>
       </c>
-      <c r="I6" s="1">
-        <v>24135</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5748</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G7" s="1">
@@ -13002,18 +12252,10 @@
       <c r="H7" s="1">
         <v>8</v>
       </c>
-      <c r="I7" s="1">
-        <v>24460</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6470</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G8" s="1">
@@ -13022,18 +12264,10 @@
       <c r="H8" s="1">
         <v>8</v>
       </c>
-      <c r="I8" s="1">
-        <v>22388</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4695</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G9" s="1">
@@ -13042,18 +12276,10 @@
       <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="I9" s="1">
-        <v>23256</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>8649</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G10" s="1">
@@ -13062,18 +12288,10 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="1">
-        <v>22680</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>14689</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G11" s="1">
@@ -13082,18 +12300,10 @@
       <c r="H11" s="1">
         <v>8</v>
       </c>
-      <c r="I11" s="1">
-        <v>22309</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>6539</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G12" s="1">
@@ -13102,18 +12312,10 @@
       <c r="H12" s="1">
         <v>8</v>
       </c>
-      <c r="I12" s="1">
-        <v>21242</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>16923</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G13" s="1">
@@ -13149,8 +12351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13206,18 +12408,10 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>48498</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2709</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -13226,18 +12420,10 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>56538</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4487</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -13246,18 +12432,10 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <v>51537</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3969</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -13266,18 +12444,10 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>65643</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5114</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -13286,18 +12456,10 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>46764</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3318</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -13306,18 +12468,10 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>50434</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3539</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -13326,18 +12480,10 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>48355</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2665</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -13346,18 +12492,10 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <v>41581</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3509</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -13394,7 +12532,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13447,18 +12585,10 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>26656</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3622</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -13467,18 +12597,10 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>26227</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>11536</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -13487,18 +12609,10 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>28111</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9894</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -13507,18 +12621,10 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>24895</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2657</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -13527,18 +12633,10 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>21581</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8192</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -13547,18 +12645,10 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>20787</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10868</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -13567,18 +12657,10 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>23835</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10756</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -13587,18 +12669,10 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>22183</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10384</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -13635,7 +12709,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C4" sqref="C4:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13688,18 +12762,10 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>11463</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12590</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -13708,18 +12774,10 @@
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>10534</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>13707</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -13728,18 +12786,10 @@
       <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>11525</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>13168</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -13748,18 +12798,10 @@
       <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>12424</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>16315</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -13768,18 +12810,10 @@
       <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <v>11273</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>15622</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -13788,18 +12822,10 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>11599</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>15056</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -13808,18 +12834,10 @@
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>11976</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>14129</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -13828,18 +12846,10 @@
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
-        <v>12227</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>12574</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -13876,7 +12886,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="I4" sqref="I4:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13961,18 +12971,10 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <v>18283</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>9164</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -13990,18 +12992,10 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
-        <v>21016</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>8269</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -14019,18 +13013,10 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
-        <v>17229</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>9441</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -14048,18 +13034,10 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
-        <v>20154</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>9782</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -14077,18 +13055,10 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
-        <v>18048</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>10406</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -14106,18 +13076,10 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
-        <v>18038</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>10350</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -14135,15 +13097,9 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1">
-        <v>17004</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -14162,15 +13118,9 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
-        <v>19102</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -14189,15 +13139,9 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>21007</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -14216,15 +13160,9 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1">
-        <v>17161</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -14502,8 +13440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14554,15 +13492,9 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>6988</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -14572,15 +13504,9 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>7235</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14590,15 +13516,9 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>11715</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14608,15 +13528,9 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>7434</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -14701,7 +13615,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14753,15 +13667,9 @@
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>3617</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -14771,15 +13679,9 @@
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>1762</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14789,15 +13691,9 @@
       <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>1160</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14807,15 +13703,9 @@
       <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>1385</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/DatosSinSeguridad.xlsx
+++ b/docs/DatosSinSeguridad.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\mi.arevalo10\Documents\Infracomp\Casos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PANA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17105" windowHeight="6173" tabRatio="790" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Carga 80 - 8 threads" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -338,6 +337,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -424,6 +435,9 @@
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -501,6 +515,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -519,11 +545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407701552"/>
-        <c:axId val="-407708624"/>
+        <c:axId val="315743480"/>
+        <c:axId val="524863976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407701552"/>
+        <c:axId val="315743480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,12 +667,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407708624"/>
+        <c:crossAx val="524863976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407708624"/>
+        <c:axId val="524863976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +790,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407701552"/>
+        <c:crossAx val="315743480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,6 +916,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -983,11 +1010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-369425232"/>
-        <c:axId val="-369412176"/>
+        <c:axId val="524541144"/>
+        <c:axId val="524540360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-369425232"/>
+        <c:axId val="524541144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,6 +1065,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1104,12 +1132,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369412176"/>
+        <c:crossAx val="524540360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-369412176"/>
+        <c:axId val="524540360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,6 +1188,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1226,7 +1255,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369425232"/>
+        <c:crossAx val="524541144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1432,6 +1461,9 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1509,6 +1541,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1586,6 +1630,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1604,11 +1660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407705360"/>
-        <c:axId val="-407699920"/>
+        <c:axId val="524864760"/>
+        <c:axId val="524865544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407705360"/>
+        <c:axId val="524864760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,12 +1782,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407699920"/>
+        <c:crossAx val="524865544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407699920"/>
+        <c:axId val="524865544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1905,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407705360"/>
+        <c:crossAx val="524864760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2245,11 +2301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407693936"/>
-        <c:axId val="-407706992"/>
+        <c:axId val="524865152"/>
+        <c:axId val="524867504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407693936"/>
+        <c:axId val="524865152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,12 +2423,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407706992"/>
+        <c:crossAx val="524867504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407706992"/>
+        <c:axId val="524867504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2541,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407693936"/>
+        <c:crossAx val="524865152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2579,6 +2635,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2645,6 +2702,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2672,11 +2741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407708080"/>
-        <c:axId val="-407694480"/>
+        <c:axId val="524864368"/>
+        <c:axId val="524866328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407708080"/>
+        <c:axId val="524864368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,12 +2802,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407694480"/>
+        <c:crossAx val="524866328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407694480"/>
+        <c:axId val="524866328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,7 +2864,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407708080"/>
+        <c:crossAx val="524864368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2889,6 +2958,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2955,6 +3025,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2982,11 +3064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407706448"/>
-        <c:axId val="-407696656"/>
+        <c:axId val="524542712"/>
+        <c:axId val="524543496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407706448"/>
+        <c:axId val="524542712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,6 +3119,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3103,12 +3186,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407696656"/>
+        <c:crossAx val="524543496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407696656"/>
+        <c:axId val="524543496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,6 +3237,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3220,7 +3304,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407706448"/>
+        <c:crossAx val="524542712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3314,6 +3398,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3588,11 +3673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407704816"/>
-        <c:axId val="-407703184"/>
+        <c:axId val="524540752"/>
+        <c:axId val="524806392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407704816"/>
+        <c:axId val="524540752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,6 +3728,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3709,12 +3795,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407703184"/>
+        <c:crossAx val="524806392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407703184"/>
+        <c:axId val="524806392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,6 +3846,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3826,7 +3913,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407704816"/>
+        <c:crossAx val="524540752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3840,6 +3927,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3951,6 +4039,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4225,11 +4314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-407702640"/>
-        <c:axId val="-407695024"/>
+        <c:axId val="524806784"/>
+        <c:axId val="524804824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-407702640"/>
+        <c:axId val="524806784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,6 +4369,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4346,12 +4436,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407695024"/>
+        <c:crossAx val="524804824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-407695024"/>
+        <c:axId val="524804824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4402,6 +4492,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4468,7 +4559,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-407702640"/>
+        <c:crossAx val="524806784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4482,6 +4573,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4593,6 +4685,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4867,11 +4960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-369416528"/>
-        <c:axId val="-369418160"/>
+        <c:axId val="524805608"/>
+        <c:axId val="524803648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-369416528"/>
+        <c:axId val="524805608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4922,6 +5015,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4988,12 +5082,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369418160"/>
+        <c:crossAx val="524803648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-369418160"/>
+        <c:axId val="524803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5039,6 +5133,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5105,7 +5200,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369416528"/>
+        <c:crossAx val="524805608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5119,6 +5214,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5323,11 +5419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-369413808"/>
-        <c:axId val="-369412720"/>
+        <c:axId val="524806000"/>
+        <c:axId val="524805216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-369413808"/>
+        <c:axId val="524806000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5439,12 +5535,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369412720"/>
+        <c:crossAx val="524805216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-369412720"/>
+        <c:axId val="524805216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5561,7 +5657,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369413808"/>
+        <c:crossAx val="524806000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11799,20 +11895,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -11828,7 +11924,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -11851,7 +11947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -11872,7 +11968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -11893,7 +11989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -11914,22 +12010,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -11944,7 +12046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -11959,7 +12061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -11974,7 +12076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -11989,7 +12091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -12001,7 +12103,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -12025,20 +12127,20 @@
   <dimension ref="A4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12058,55 +12160,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -12118,7 +12244,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -12130,7 +12256,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -12142,7 +12268,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -12154,7 +12280,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -12166,7 +12292,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -12188,20 +12314,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L12"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12221,55 +12347,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>8</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1">
         <v>8</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G8" s="1">
         <v>4</v>
       </c>
       <c r="H8" s="1">
         <v>8</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G9" s="1">
         <v>5</v>
       </c>
@@ -12281,7 +12431,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G10" s="1">
         <v>6</v>
       </c>
@@ -12293,7 +12443,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G11" s="1">
         <v>7</v>
       </c>
@@ -12305,7 +12455,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G12" s="1">
         <v>8</v>
       </c>
@@ -12317,7 +12467,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G13" s="1">
         <v>9</v>
       </c>
@@ -12329,7 +12479,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G14" s="1">
         <v>10</v>
       </c>
@@ -12351,21 +12501,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -12381,7 +12531,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12401,7 +12551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -12413,7 +12563,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -12425,7 +12575,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -12437,7 +12587,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -12449,7 +12599,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -12461,7 +12611,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -12473,7 +12623,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -12485,7 +12635,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -12497,7 +12647,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -12509,7 +12659,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -12535,16 +12685,16 @@
       <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -12558,7 +12708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12578,7 +12728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -12590,7 +12740,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -12602,7 +12752,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -12614,7 +12764,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -12626,7 +12776,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -12638,7 +12788,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -12650,7 +12800,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -12662,7 +12812,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -12674,7 +12824,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -12686,7 +12836,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -12712,16 +12862,16 @@
       <selection activeCell="C4" sqref="C4:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -12735,7 +12885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -12755,7 +12905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -12767,7 +12917,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -12779,7 +12929,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -12791,7 +12941,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -12803,7 +12953,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -12815,7 +12965,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -12827,7 +12977,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -12839,7 +12989,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -12851,7 +13001,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -12863,7 +13013,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -12889,19 +13039,19 @@
       <selection activeCell="I4" sqref="I4:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -12915,7 +13065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -12929,7 +13079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12949,7 +13099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -12976,7 +13126,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -12997,7 +13147,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -13018,7 +13168,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -13039,7 +13189,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -13060,7 +13210,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -13081,7 +13231,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -13102,7 +13252,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -13123,7 +13273,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -13144,7 +13294,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -13165,7 +13315,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -13176,7 +13326,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -13193,7 +13343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -13204,7 +13354,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -13215,7 +13365,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -13226,7 +13376,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -13237,7 +13387,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -13248,7 +13398,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -13259,7 +13409,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -13270,7 +13420,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -13281,7 +13431,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -13292,7 +13442,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10</v>
       </c>
@@ -13303,7 +13453,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -13320,7 +13470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -13331,7 +13481,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -13342,7 +13492,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -13353,7 +13503,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -13364,7 +13514,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -13375,7 +13525,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -13386,7 +13536,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -13397,7 +13547,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -13408,7 +13558,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -13419,7 +13569,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -13444,14 +13594,14 @@
       <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13465,7 +13615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -13485,7 +13635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13497,7 +13647,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13509,7 +13659,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13521,7 +13671,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13533,7 +13683,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13545,7 +13695,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13557,7 +13707,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13569,7 +13719,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13581,7 +13731,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13593,7 +13743,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13618,15 +13768,15 @@
       <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13640,7 +13790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -13660,7 +13810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13672,7 +13822,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13684,7 +13834,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13696,7 +13846,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13708,7 +13858,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13720,7 +13870,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13732,7 +13882,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13744,7 +13894,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13756,7 +13906,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13768,7 +13918,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>

--- a/docs/DatosSinSeguridad.xlsx
+++ b/docs/DatosSinSeguridad.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PANA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17105" windowHeight="6173" tabRatio="790" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="790" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Carga 80 - 2 threads" sheetId="9" r:id="rId8"/>
     <sheet name="Carga 80 - 8 threads" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,9 +185,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -195,7 +205,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -234,7 +244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -353,7 +362,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -438,11 +447,23 @@
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -531,7 +552,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -600,7 +621,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -723,7 +743,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -804,7 +823,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -872,7 +890,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -916,7 +934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -996,7 +1013,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A957-4C47-A390-B19E2F9EDC8D}"/>
             </c:ext>
@@ -1065,7 +1082,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1188,7 +1204,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1305,7 +1320,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1349,7 +1364,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1464,11 +1478,23 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1557,7 +1583,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1646,7 +1672,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1715,7 +1741,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1838,7 +1863,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1919,7 +1943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1987,7 +2010,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2026,7 +2049,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2127,13 +2149,37 @@
             <c:numRef>
               <c:f>'Carga 400 - 1 thread'!$F$4:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8699999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1012</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2210,7 +2256,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2287,7 +2333,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2356,7 +2402,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2474,7 +2519,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2504,7 +2548,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2591,7 +2635,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2635,7 +2679,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2727,7 +2770,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F434-4E38-8F66-8468359604B0}"/>
             </c:ext>
@@ -2914,7 +2957,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2958,7 +3001,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3050,7 +3092,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AA71-49F2-9AD0-6BB109E1652A}"/>
             </c:ext>
@@ -3119,7 +3161,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3237,7 +3278,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3354,7 +3394,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3398,7 +3438,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3505,7 +3544,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -3582,7 +3621,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -3659,7 +3698,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D94C-41FB-959D-5789B63128E0}"/>
             </c:ext>
@@ -3728,7 +3767,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3846,7 +3884,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3927,7 +3964,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3995,7 +4031,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4039,7 +4075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4146,7 +4181,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -4223,7 +4258,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -4300,7 +4335,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8366-493F-9BBC-26E941AF9D2C}"/>
             </c:ext>
@@ -4369,7 +4404,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4492,7 +4526,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4573,7 +4606,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4641,7 +4673,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4685,7 +4717,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4792,7 +4823,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -4869,7 +4900,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -4946,7 +4977,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
@@ -5015,7 +5046,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5133,7 +5163,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5214,7 +5243,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5282,7 +5310,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5405,7 +5433,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72C6-4518-AB49-E332A1C1B12D}"/>
             </c:ext>
@@ -11895,20 +11923,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -11924,7 +11952,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -11947,7 +11975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -11963,12 +11991,14 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="10">
+        <v>0.1095</v>
+      </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -11984,12 +12014,14 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="10">
+        <v>0.112</v>
+      </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -12005,12 +12037,14 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="10">
+        <v>0.1045</v>
+      </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -12026,94 +12060,144 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="10">
+        <v>0.1033</v>
+      </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.1089</v>
+      </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.1077</v>
+      </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>9.8699999999999996E-2</v>
+      </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.1012</v>
+      </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.1019</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.1021</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12130,17 +12214,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12160,7 +12244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -12178,7 +12262,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -12196,7 +12280,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -12214,7 +12298,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -12232,7 +12316,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -12244,7 +12328,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -12256,7 +12340,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -12268,7 +12352,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -12280,7 +12364,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -12292,7 +12376,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -12318,16 +12402,16 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12347,7 +12431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -12365,7 +12449,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -12383,7 +12467,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G7" s="1">
         <v>3</v>
       </c>
@@ -12401,7 +12485,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G8" s="1">
         <v>4</v>
       </c>
@@ -12419,7 +12503,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G9" s="1">
         <v>5</v>
       </c>
@@ -12431,7 +12515,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G10" s="1">
         <v>6</v>
       </c>
@@ -12443,7 +12527,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G11" s="1">
         <v>7</v>
       </c>
@@ -12455,7 +12539,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G12" s="1">
         <v>8</v>
       </c>
@@ -12467,7 +12551,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G13" s="1">
         <v>9</v>
       </c>
@@ -12479,7 +12563,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G14" s="1">
         <v>10</v>
       </c>
@@ -12501,21 +12585,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -12531,7 +12615,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12551,7 +12635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -12563,7 +12647,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -12575,7 +12659,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -12587,7 +12671,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -12599,7 +12683,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -12611,7 +12695,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -12623,7 +12707,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -12635,7 +12719,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -12647,7 +12731,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -12659,7 +12743,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -12685,16 +12769,16 @@
       <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -12708,7 +12792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12728,7 +12812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -12740,7 +12824,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -12752,7 +12836,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -12764,7 +12848,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -12776,7 +12860,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -12788,7 +12872,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -12800,7 +12884,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -12812,7 +12896,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -12824,7 +12908,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -12836,7 +12920,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -12862,16 +12946,16 @@
       <selection activeCell="C4" sqref="C4:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -12885,7 +12969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -12905,7 +12989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -12917,7 +13001,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -12929,7 +13013,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -12941,7 +13025,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -12953,7 +13037,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -12965,7 +13049,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -12977,7 +13061,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -12989,7 +13073,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13001,7 +13085,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13013,7 +13097,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13039,19 +13123,19 @@
       <selection activeCell="I4" sqref="I4:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13065,7 +13149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -13079,7 +13163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
@@ -13099,7 +13183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -13126,7 +13210,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -13147,7 +13231,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -13168,7 +13252,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -13189,7 +13273,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -13210,7 +13294,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -13231,7 +13315,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -13252,7 +13336,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -13273,7 +13357,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -13294,7 +13378,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -13315,7 +13399,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -13326,7 +13410,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -13343,7 +13427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -13354,7 +13438,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -13365,7 +13449,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -13376,7 +13460,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -13387,7 +13471,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -13398,7 +13482,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -13409,7 +13493,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -13420,7 +13504,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -13431,7 +13515,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -13442,7 +13526,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10</v>
       </c>
@@ -13453,7 +13537,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -13470,7 +13554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -13481,7 +13565,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -13492,7 +13576,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -13503,7 +13587,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -13514,7 +13598,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -13525,7 +13609,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -13536,7 +13620,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -13547,7 +13631,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -13558,7 +13642,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -13569,7 +13653,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -13594,14 +13678,14 @@
       <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13615,7 +13699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -13635,7 +13719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13647,7 +13731,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13659,7 +13743,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13671,7 +13755,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13683,7 +13767,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13695,7 +13779,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13707,7 +13791,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13719,7 +13803,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13731,7 +13815,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13743,7 +13827,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13768,15 +13852,15 @@
       <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13790,7 +13874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -13810,7 +13894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13822,7 +13906,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13834,7 +13918,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13846,7 +13930,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13858,7 +13942,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13870,7 +13954,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13882,7 +13966,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13894,7 +13978,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13906,7 +13990,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13918,7 +14002,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>

--- a/docs/DatosSinSeguridad.xlsx
+++ b/docs/DatosSinSeguridad.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PANA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="790" firstSheet="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17105" windowHeight="6173" tabRatio="790" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Carga 400 - 1 thread" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Carga 80 - 2 threads" sheetId="9" r:id="rId8"/>
     <sheet name="Carga 80 - 8 threads" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +102,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -166,11 +159,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -185,11 +177,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -205,7 +195,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -362,7 +352,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -447,23 +437,11 @@
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -552,7 +530,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1896-40EE-A9F8-68032C6B7EE1}"/>
             </c:ext>
@@ -566,11 +544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="315743480"/>
-        <c:axId val="524863976"/>
+        <c:axId val="314917328"/>
+        <c:axId val="314916152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="315743480"/>
+        <c:axId val="314917328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,12 +665,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524863976"/>
+        <c:crossAx val="314916152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524863976"/>
+        <c:axId val="314916152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +787,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315743480"/>
+        <c:crossAx val="314917328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,7 +868,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -934,6 +912,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1013,7 +992,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A957-4C47-A390-B19E2F9EDC8D}"/>
             </c:ext>
@@ -1027,11 +1006,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524541144"/>
-        <c:axId val="524540360"/>
+        <c:axId val="524658496"/>
+        <c:axId val="524659280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524541144"/>
+        <c:axId val="524658496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,6 +1061,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1148,12 +1128,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524540360"/>
+        <c:crossAx val="524659280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524540360"/>
+        <c:axId val="524659280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,6 +1184,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1270,7 +1251,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524541144"/>
+        <c:crossAx val="524658496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1320,7 +1301,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1478,23 +1459,11 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1583,7 +1552,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1672,7 +1641,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5A13-4799-BE8F-F7994C5AE81E}"/>
             </c:ext>
@@ -1686,11 +1655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524864760"/>
-        <c:axId val="524865544"/>
+        <c:axId val="313987872"/>
+        <c:axId val="522835848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524864760"/>
+        <c:axId val="313987872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,12 +1776,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524865544"/>
+        <c:crossAx val="522835848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524865544"/>
+        <c:axId val="522835848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,7 +1898,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524864760"/>
+        <c:crossAx val="313987872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2010,7 +1979,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2149,37 +2118,13 @@
             <c:numRef>
               <c:f>'Carga 400 - 1 thread'!$F$4:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.1095</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1045</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1089</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1077</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8699999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1012</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2256,7 +2201,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2333,7 +2278,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-18AD-4392-A06F-5D6244CAD43C}"/>
             </c:ext>
@@ -2347,11 +2292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524865152"/>
-        <c:axId val="524867504"/>
+        <c:axId val="522834672"/>
+        <c:axId val="522833888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524865152"/>
+        <c:axId val="522834672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,12 +2413,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524867504"/>
+        <c:crossAx val="522833888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524867504"/>
+        <c:axId val="522833888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2493,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2585,7 +2530,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524865152"/>
+        <c:crossAx val="522834672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2635,7 +2580,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2770,7 +2715,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F434-4E38-8F66-8468359604B0}"/>
             </c:ext>
@@ -2784,11 +2729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524864368"/>
-        <c:axId val="524866328"/>
+        <c:axId val="522837024"/>
+        <c:axId val="522835064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524864368"/>
+        <c:axId val="522837024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,12 +2790,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524866328"/>
+        <c:crossAx val="522835064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524866328"/>
+        <c:axId val="522835064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,7 +2852,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524864368"/>
+        <c:crossAx val="522837024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2957,7 +2902,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3001,6 +2946,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3092,7 +3038,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AA71-49F2-9AD0-6BB109E1652A}"/>
             </c:ext>
@@ -3106,11 +3052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524542712"/>
-        <c:axId val="524543496"/>
+        <c:axId val="522835456"/>
+        <c:axId val="522836632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524542712"/>
+        <c:axId val="522835456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3161,6 +3107,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3227,12 +3174,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524543496"/>
+        <c:crossAx val="522836632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524543496"/>
+        <c:axId val="522836632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3278,6 +3225,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3344,7 +3292,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524542712"/>
+        <c:crossAx val="522835456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3394,7 +3342,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3433,6 +3381,1338 @@
             <a:r>
               <a:rPr lang="es-CO" baseline="0"/>
               <a:t> 200: #threads vs Tiempo autenticación</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 1 thread'!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 1 thread'!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D94C-41FB-959D-5789B63128E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 2 threads'!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 2 threads'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D94C-41FB-959D-5789B63128E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 8 threads'!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 8 threads'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D94C-41FB-959D-5789B63128E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520516080"/>
+        <c:axId val="520516472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520516080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>N°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520516472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="520516472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo autenticación(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520516080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> 200: #threads vs N° transacciones perdidas</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 1 thread'!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 1 thread'!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8366-493F-9BBC-26E941AF9D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 2 threads'!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 2 threads'!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8366-493F-9BBC-26E941AF9D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 8 threads'!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga 200 - 8 threads'!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8366-493F-9BBC-26E941AF9D2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520516864"/>
+        <c:axId val="520517648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520516864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>N°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520517648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="520517648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>N°</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> transacciones perdidas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520516864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Carga</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> 200: #threads vs Poercentaje CPU</a:t>
             </a:r>
             <a:endParaRPr lang="es-CO"/>
           </a:p>
@@ -3536,7 +4816,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga 200 - 1 thread'!$C$5:$C$12</c:f>
+              <c:f>'Carga 200 - 1 thread'!$F$5:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3544,9 +4824,9 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D94C-41FB-959D-5789B63128E0}"/>
+              <c16:uniqueId val="{00000000-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3613,7 +4893,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga 200 - 2 threads'!$C$4:$C$11</c:f>
+              <c:f>'Carga 200 - 2 threads'!$F$4:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3621,9 +4901,9 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D94C-41FB-959D-5789B63128E0}"/>
+              <c16:uniqueId val="{00000001-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3690,7 +4970,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga 200 - 8 threads'!$C$4:$C$11</c:f>
+              <c:f>'Carga 200 - 8 threads'!$F$4:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3698,9 +4978,9 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D94C-41FB-959D-5789B63128E0}"/>
+              <c16:uniqueId val="{00000002-B7BE-411C-8863-9A77309B5762}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3712,11 +4992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524540752"/>
-        <c:axId val="524806392"/>
+        <c:axId val="520518040"/>
+        <c:axId val="520518432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524540752"/>
+        <c:axId val="520518040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,1291 +5113,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524806392"/>
+        <c:crossAx val="520518432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524806392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>Tiempo autenticación(ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="524540752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Carga</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> 200: #threads vs N° transacciones perdidas</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 thread</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 1 thread'!$B$5:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 1 thread'!$E$5:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8366-493F-9BBC-26E941AF9D2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 2 threads'!$B$4:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 2 threads'!$E$4:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8366-493F-9BBC-26E941AF9D2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>8 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 8 threads'!$B$4:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 8 threads'!$E$4:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8366-493F-9BBC-26E941AF9D2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="524806784"/>
-        <c:axId val="524804824"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="524806784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>N°</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="524804824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="524804824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>N°</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> transacciones perdidas</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="524806784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Carga</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> 200: #threads vs Poercentaje CPU</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 thread</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 1 thread'!$B$5:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 1 thread'!$F$5:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B7BE-411C-8863-9A77309B5762}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 2 threads'!$B$4:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 2 threads'!$F$4:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B7BE-411C-8863-9A77309B5762}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>8 threads</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 8 threads'!$B$4:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Carga 200 - 8 threads'!$F$4:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B7BE-411C-8863-9A77309B5762}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="524805608"/>
-        <c:axId val="524803648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="524805608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO"/>
-                  <a:t>N°</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="524803648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="524803648"/>
+        <c:axId val="520518432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5229,7 +5230,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524805608"/>
+        <c:crossAx val="520518040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5310,7 +5311,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5354,6 +5355,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5420,6 +5422,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5433,7 +5447,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72C6-4518-AB49-E332A1C1B12D}"/>
             </c:ext>
@@ -5447,11 +5461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="524806000"/>
-        <c:axId val="524805216"/>
+        <c:axId val="524659672"/>
+        <c:axId val="524656536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="524806000"/>
+        <c:axId val="524659672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5497,6 +5511,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5563,12 +5578,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524805216"/>
+        <c:crossAx val="524656536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524805216"/>
+        <c:axId val="524656536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5619,6 +5634,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5685,7 +5701,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524806000"/>
+        <c:crossAx val="524659672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11923,20 +11939,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -11952,7 +11968,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -11975,7 +11991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -11991,14 +12007,12 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
-        <v>0.1095</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -12014,14 +12028,12 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
-        <v>0.112</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -12037,14 +12049,12 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="10">
-        <v>0.1045</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -12060,144 +12070,94 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="10">
-        <v>0.1033</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="H7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.1089</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="H8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.1077</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>9.8699999999999996E-2</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.1012</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.1019</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.1021</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12214,17 +12174,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12244,7 +12204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -12262,7 +12222,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -12280,7 +12240,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -12298,7 +12258,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -12316,7 +12276,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -12328,7 +12288,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -12340,7 +12300,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -12352,7 +12312,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -12364,7 +12324,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -12376,7 +12336,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -12398,20 +12358,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
+    <sheetView topLeftCell="F2" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12431,7 +12391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -12449,7 +12409,7 @@
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -12467,7 +12427,7 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G7" s="1">
         <v>3</v>
       </c>
@@ -12485,7 +12445,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G8" s="1">
         <v>4</v>
       </c>
@@ -12503,7 +12463,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G9" s="1">
         <v>5</v>
       </c>
@@ -12515,7 +12475,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G10" s="1">
         <v>6</v>
       </c>
@@ -12527,7 +12487,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G11" s="1">
         <v>7</v>
       </c>
@@ -12539,7 +12499,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G12" s="1">
         <v>8</v>
       </c>
@@ -12551,7 +12511,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G13" s="1">
         <v>9</v>
       </c>
@@ -12563,7 +12523,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G14" s="1">
         <v>10</v>
       </c>
@@ -12586,20 +12546,20 @@
   <dimension ref="A3:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -12615,7 +12575,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -12635,55 +12595,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -12695,7 +12677,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -12707,7 +12689,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -12719,7 +12701,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -12731,7 +12713,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -12743,7 +12725,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -12766,19 +12748,19 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -12792,7 +12774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -12812,55 +12794,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -12872,7 +12878,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -12884,7 +12890,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -12896,7 +12902,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -12908,7 +12914,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -12920,7 +12926,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -12942,20 +12948,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -12969,7 +12975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -12989,7 +12995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13001,7 +13007,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13013,7 +13019,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13025,7 +13031,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13037,7 +13043,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13049,7 +13055,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13061,7 +13067,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13073,7 +13079,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13085,7 +13091,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13097,7 +13103,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13123,19 +13129,19 @@
       <selection activeCell="I4" sqref="I4:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13149,7 +13155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -13163,7 +13169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
@@ -13183,7 +13189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -13210,7 +13216,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -13231,7 +13237,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -13252,7 +13258,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -13273,7 +13279,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -13294,7 +13300,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -13315,7 +13321,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -13336,7 +13342,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -13357,7 +13363,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -13378,7 +13384,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -13399,7 +13405,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -13410,7 +13416,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -13427,7 +13433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -13438,7 +13444,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -13449,7 +13455,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -13460,7 +13466,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -13471,7 +13477,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -13482,7 +13488,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -13493,7 +13499,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -13504,7 +13510,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -13515,7 +13521,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -13526,7 +13532,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10</v>
       </c>
@@ -13537,7 +13543,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -13554,7 +13560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -13565,7 +13571,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -13576,7 +13582,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -13587,7 +13593,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -13598,7 +13604,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -13609,7 +13615,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -13620,7 +13626,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -13631,7 +13637,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -13642,7 +13648,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>9</v>
       </c>
@@ -13653,7 +13659,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>10</v>
       </c>
@@ -13678,14 +13684,14 @@
       <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13699,7 +13705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -13719,7 +13725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13731,7 +13737,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13743,7 +13749,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13755,7 +13761,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13767,7 +13773,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13779,7 +13785,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13791,7 +13797,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13803,7 +13809,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13815,7 +13821,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -13827,7 +13833,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -13852,15 +13858,15 @@
       <selection activeCell="C4" sqref="C4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13874,7 +13880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -13894,7 +13900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13906,7 +13912,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13918,7 +13924,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13930,7 +13936,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13942,7 +13948,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13954,7 +13960,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13966,7 +13972,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13978,7 +13984,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13990,7 +13996,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -14002,7 +14008,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
